--- a/documents/02_Requirements/01_Diagram.xlsx
+++ b/documents/02_Requirements/01_Diagram.xlsx
@@ -96,15 +96,15 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>359709</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>80595</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>102577</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Rounded Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -113,7 +113,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="378759" y="250452"/>
-          <a:ext cx="7278565" cy="4973643"/>
+          <a:ext cx="7278565" cy="4043125"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -174,7 +174,7 @@
         <xdr:cNvPr id="3" name="Rounded Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -247,7 +247,7 @@
         <xdr:cNvPr id="4" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -532,254 +532,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>39220</xdr:colOff>
+      <xdr:colOff>45082</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>61418</xdr:rowOff>
+      <xdr:rowOff>85293</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>145073</xdr:colOff>
+      <xdr:colOff>150935</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>145074</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="26" name="Group 25"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="647355" y="1966418"/>
-          <a:ext cx="6795333" cy="655156"/>
-          <a:chOff x="1043009" y="4721341"/>
-          <a:chExt cx="6795333" cy="655156"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="24" name="Rounded Rectangle 23">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000021000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1043009" y="4732028"/>
-            <a:ext cx="6795333" cy="593179"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 6093"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="20000"/>
-              <a:lumOff val="80000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln w="6350"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="en-US" sz="1800" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="25" name="TextBox 24"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1050509" y="4721341"/>
-            <a:ext cx="6685256" cy="655156"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-              <a:t>Identification Service </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" baseline="0"/>
-              <a:t>UUID: FFF0</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Identification Charateristic UUID: </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>FFF1</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100" b="0" baseline="0"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>37755</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>77966</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>143608</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>99645</xdr:rowOff>
+      <xdr:rowOff>106972</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="35" name="Rounded Rectangle 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -787,7 +555,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="645890" y="2744966"/>
+          <a:off x="653217" y="1990293"/>
           <a:ext cx="6795333" cy="593179"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -837,15 +605,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>45255</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>67279</xdr:rowOff>
+      <xdr:colOff>52582</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>74606</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>41031</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>150935</xdr:rowOff>
+      <xdr:colOff>48358</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>158262</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -854,7 +622,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="653390" y="2734279"/>
+          <a:off x="660717" y="1979606"/>
           <a:ext cx="6685256" cy="655156"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -902,7 +670,7 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>Click Availavle Service </a:t>
+            <a:t>Click Available Service </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
@@ -918,7 +686,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>FFF2</a:t>
+            <a:t>FFF0</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -977,7 +745,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Bottle Replacement Charateristic UUID: </a:t>
+            <a:t>Click Available Charateristic UUID: </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
@@ -989,7 +757,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>FFF3</a:t>
+            <a:t>FFF1</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0" baseline="0"/>
         </a:p>
@@ -1000,22 +768,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>36290</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>76501</xdr:rowOff>
+      <xdr:colOff>20171</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>45728</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>142143</xdr:colOff>
+      <xdr:colOff>126024</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>98180</xdr:rowOff>
+      <xdr:rowOff>131885</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="Rounded Rectangle 36">
+        <xdr:cNvPr id="39" name="Rounded Rectangle 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1023,8 +791,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="644425" y="3505501"/>
-          <a:ext cx="6795333" cy="593179"/>
+          <a:off x="628306" y="2712728"/>
+          <a:ext cx="6795333" cy="1419657"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1073,25 +841,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>43790</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>65814</xdr:rowOff>
+      <xdr:colOff>64305</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>122964</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>39566</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>149470</xdr:rowOff>
+      <xdr:colOff>60081</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>31009</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="TextBox 37"/>
+        <xdr:cNvPr id="40" name="TextBox 39"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="651925" y="3494814"/>
-          <a:ext cx="6685256" cy="655156"/>
+          <a:off x="672440" y="2789964"/>
+          <a:ext cx="6685256" cy="1432045"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1137,8 +905,12 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>Miscellaneous</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>Mode Selection Service </a:t>
+            <a:t> Service </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
@@ -1154,7 +926,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>FFF4</a:t>
+            <a:t>FFF2</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1204,18 +976,6 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Bottle Replacement Charateristic UUID: </a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
@@ -1225,172 +985,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>FFF5</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" baseline="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>12844</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>1766</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>118697</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>23445</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="Rounded Rectangle 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000021000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="620979" y="4383266"/>
-          <a:ext cx="6795333" cy="593179"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 6093"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="6350"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1800" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>20344</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>181579</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>16120</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>74735</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="TextBox 39"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="628479" y="4372579"/>
-          <a:ext cx="6685256" cy="655156"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>Bottle Replacement Service </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>UUID: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>FFF6</a:t>
+            <a:t>Identification Characterictic UUID: FFF3 </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1440,6 +1035,65 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Mode Selection Charaterictic UUID: FFF4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
@@ -1461,9 +1115,28 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>FFF7</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>FFF5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1762,7 +1435,7 @@
   <dimension ref="O3:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/documents/02_Requirements/01_Diagram.xlsx
+++ b/documents/02_Requirements/01_Diagram.xlsx
@@ -104,7 +104,7 @@
         <xdr:cNvPr id="2" name="Rounded Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -174,7 +174,7 @@
         <xdr:cNvPr id="3" name="Rounded Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -247,7 +247,7 @@
         <xdr:cNvPr id="4" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -532,22 +532,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>45082</xdr:colOff>
+      <xdr:colOff>20171</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>85293</xdr:rowOff>
+      <xdr:rowOff>140978</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>150935</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>106972</xdr:rowOff>
+      <xdr:colOff>126024</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>97024</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="Rounded Rectangle 34">
+        <xdr:cNvPr id="39" name="Rounded Rectangle 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -555,8 +555,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="653217" y="1990293"/>
-          <a:ext cx="6795333" cy="593179"/>
+          <a:off x="628306" y="2045978"/>
+          <a:ext cx="6795333" cy="1861046"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -605,25 +605,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>52582</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>74606</xdr:rowOff>
+      <xdr:colOff>64305</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>27714</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>48358</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>158262</xdr:rowOff>
+      <xdr:colOff>60081</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="TextBox 35"/>
+        <xdr:cNvPr id="40" name="TextBox 39"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="660717" y="1979606"/>
-          <a:ext cx="6685256" cy="655156"/>
+          <a:off x="672440" y="2123214"/>
+          <a:ext cx="6685256" cy="1877286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -670,7 +670,7 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>Click Available Service </a:t>
+            <a:t>Miscellaneous Service </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
@@ -736,18 +736,6 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Click Available Charateristic UUID: </a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
@@ -757,176 +745,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>FFF1</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" baseline="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>20171</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>45728</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>126024</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>131885</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="Rounded Rectangle 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000021000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="628306" y="2712728"/>
-          <a:ext cx="6795333" cy="1419657"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 6093"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="6350"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1800" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>64305</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>122964</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>60081</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>31009</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="TextBox 39"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="672440" y="2789964"/>
-          <a:ext cx="6685256" cy="1432045"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>Miscellaneous</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t> Service </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>UUID: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>FFF2</a:t>
+            <a:t>Click Availavle Charaterictic UUID: FFF1</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -985,7 +804,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Identification Characterictic UUID: FFF3 </a:t>
+            <a:t>Identification Characterictic UUID: FFF2</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1044,7 +863,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Mode Selection Charaterictic UUID: FFF4</a:t>
+            <a:t>Mode Selection Charaterictic UUID: FFF3</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1435,7 +1254,7 @@
   <dimension ref="O3:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
